--- a/medicine/Enfance/Emil_Anton/Emil_Anton.xlsx
+++ b/medicine/Enfance/Emil_Anton/Emil_Anton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emil Anton, nom de plume conjoint de Jeanne Fage-Antonelli (née à Nîmes le 10 mars 1904 et décédée à Castelnau-d'Estrétefonds le 17 août 1992) et d'Émile Debard (né à Sanvensa dans l’Aveyron le 4 février 1895 et décédé à Toulouse le 7 septembre 1976), sous lequel sont publiés des romans policiers, des romans d'amour et de la littérature d'enfance et de jeunesse de science-fiction et d’aventures.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne Fage-Antonelli fait des études supérieures en droit et obtient un doctorat. Émile Debard est professeur. Tous deux sont également journalistes. En 1952, ils adoptent le pseudonyme d'Emil Anton pour faire paraître dans la collection Le Masque, Le Mort qui rit, un premier roman policier qui sera suivi de trois autres titres dans le genre.
 Emil Anton donne également des textes de science-fiction et de courts romans d'aventures destinés à la jeunesse entre 1952 et 1963.
@@ -546,14 +560,60 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
-Le Mort qui rit, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 423, 1952
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Mort qui rit, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 423, 1952
 Vous avez perdu, commissaire !, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 512, 1955
 La rousse est de sortie, Lyon, Éditions des Remparts, coll. « Série Jaune » no 7, 1959
-À bout portant, Paris, Éditions de la Vague, coll. « Les Grands romans policiers » no 13, 1969
-Romans d’amour
-Larmes fécondes, Paris, Dumas, coll. « Bibliothèque pervenche » no 118, 1953 ; réédition, Paris, Tallandier, coll. « Bibliothèque pervenche » no 158, 1956
+À bout portant, Paris, Éditions de la Vague, coll. « Les Grands romans policiers » no 13, 1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emil_Anton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emil_Anton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans d’amour</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Larmes fécondes, Paris, Dumas, coll. « Bibliothèque pervenche » no 118, 1953 ; réédition, Paris, Tallandier, coll. « Bibliothèque pervenche » no 158, 1956
 Tendre Réveil, Paris, Dumas, coll. « Bibliothèque pervenche » no 127, 1953 ; réédition, Paris, Tallandier, 1956
 Calvaire d’amour, Paris, Dumas, coll. « Bibliothèque pervenche » no 131, 1954 ; réédition, Paris, Tallandier, coll. « Bibliothèque pervenche » no 196, [s.d.]
 Le Chemin des cœurs, Paris, Dumas, coll. « Bibliothèque pervenche » no 143, 1955 ; réédition, Paris, Tallandier, coll. « Bibliothèque pervenche » no 208, 1959
@@ -585,9 +645,47 @@
 Un jour, peut-être, Lyon, Éditions des Remparts, coll. « Mirabelle » no 221, 1969
 L’Oiseau inconnu, Paris, Tallandier, 1973
 Les cœurs se cherchent, Paris, Éditions France-Empire, coll. « Belle Hélène », 1979
-L’amour fait son nid, Paris, Éditions France-Empire, coll. « Belle Hélène », 1979
-Littérature d’enfance et de jeunesse
-L’Île des hommes perdus, Toulouse, Éditions du Clocher, coll. « pour la jeunesse. Série Mystère, science, fiction », 1952
+L’amour fait son nid, Paris, Éditions France-Empire, coll. « Belle Hélène », 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Emil_Anton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emil_Anton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L’Île des hommes perdus, Toulouse, Éditions du Clocher, coll. « pour la jeunesse. Série Mystère, science, fiction », 1952
 Les Momies vivantes, Toulouse, Éditions du Clocher, coll. « pour la jeunesse. Série Mystère, science, fiction », 1953
 Les Robots du Mont Maudit, Tours, Mame, coll. « Série Succès de la jeunesse » no 18, 1954
 On se bat sur la lune, Tours, Mame, coll. « Série Succès anticipation » no 3, 1956
